--- a/static/flie/人才库模板.xlsx
+++ b/static/flie/人才库模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17917\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\homework\OnlineTest_ui\static\flie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D60C1-CBC0-44B7-AEE0-E259DDB0CEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA816F46-BF67-4C50-BC18-8B89A7E51586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -522,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>123456</v>
+        <v>3.7264827773829402E+17</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -531,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>16637251726</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
